--- a/data/trans_camb/P20-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P20-Estudios-trans_camb.xlsx
@@ -664,7 +664,7 @@
         <v>0.7190731009171516</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>1.323231440086418</v>
+        <v>1.32323144008642</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>1.496398425202343</v>
+        <v>1.445000788676232</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.575234553908343</v>
+        <v>-1.354439146884005</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.9300672654475354</v>
+        <v>1.014893396326312</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1845239044736176</v>
+        <v>0.1081726553877385</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-1.621149741015603</v>
+        <v>-1.806615859753282</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-2.291108926006297</v>
+        <v>-2.330717112119046</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>1.388717770037766</v>
+        <v>1.412444063908494</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-0.9100169808824085</v>
+        <v>-0.9804502885721598</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-0.07759244604283644</v>
+        <v>-0.2285812057353045</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>6.317934044080974</v>
+        <v>6.401103760092941</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.327473106779934</v>
+        <v>3.402513387131874</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>6.295573580833818</v>
+        <v>6.478656296388639</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4.681513159762994</v>
+        <v>4.588047483751668</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>3.296864609521673</v>
+        <v>3.105761877153758</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>1.644346597388172</v>
+        <v>1.691822007599244</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>4.772861642697436</v>
+        <v>4.759277456890793</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>2.3145183498938</v>
+        <v>2.258090011271749</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>2.94502370515788</v>
+        <v>2.922554068005752</v>
       </c>
     </row>
     <row r="7">
@@ -769,7 +769,7 @@
         <v>0.1004462357355981</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.1848402019129193</v>
+        <v>0.1848402019129195</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.1820006327766123</v>
+        <v>0.1825641547483292</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.2075288514011901</v>
+        <v>-0.1866522981980215</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.1221875221265369</v>
+        <v>0.12546574104261</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.02062898292679726</v>
+        <v>0.006643892006539822</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1986435623284945</v>
+        <v>-0.2074122061122298</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.2653893199779917</v>
+        <v>-0.2675084447605059</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1728362771697767</v>
+        <v>0.1818502011101872</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.1185296663141626</v>
+        <v>-0.1261170789685399</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.01079419579642114</v>
+        <v>-0.03104316162934076</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1.137756608197356</v>
+        <v>1.145824179897327</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.5822667238974665</v>
+        <v>0.611620650266599</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.137080038010965</v>
+        <v>1.137970313375229</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.6858443830510864</v>
+        <v>0.6805456518429459</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.4752599041518103</v>
+        <v>0.4490397358586423</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2449224750241362</v>
+        <v>0.2550278435403667</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.7475703171434246</v>
+        <v>0.7350515755757496</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.3611147363137092</v>
+        <v>0.3467205272229229</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.4540919370330088</v>
+        <v>0.4566367364720888</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>0.03606705374809005</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>-0.9832220595473611</v>
+        <v>-0.9832220595473624</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>1.991710915708036</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.7020906745781372</v>
+        <v>0.8256671745119666</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1288436684131007</v>
+        <v>0.1122237571283012</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.7585493356777326</v>
+        <v>0.910053904053066</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.01296646091789168</v>
+        <v>0.01773380967451776</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-1.797420808518165</v>
+        <v>-1.654961414867059</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-2.766750949397921</v>
+        <v>-2.796743738867469</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.8828669826389388</v>
+        <v>0.7024776139860039</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-0.3649164600100164</v>
+        <v>-0.3103750148079414</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-0.5086262659612236</v>
+        <v>-0.3259599650230284</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.285738894748224</v>
+        <v>3.380482233455721</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.442785400742244</v>
+        <v>2.500857103335288</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.24741421979031</v>
+        <v>3.305328598257498</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.843976004132247</v>
+        <v>3.852326944871027</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>1.733879361391524</v>
+        <v>1.763083795825885</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.675657188073389</v>
+        <v>0.5204118319453936</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>3.180930824826989</v>
+        <v>3.092595979191021</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>1.771902027952801</v>
+        <v>1.722169729683347</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>1.51388192785084</v>
+        <v>1.706731680760003</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>0.005021364374872039</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.1368871507188435</v>
+        <v>-0.1368871507188437</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.410820494314722</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.2247364813252382</v>
+        <v>0.2543124756143144</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.0307363400434804</v>
+        <v>0.004163630362665776</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.2201209182969117</v>
+        <v>0.2762061690477996</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.002163176922012575</v>
+        <v>-0.005594465771485777</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.2230162998562506</v>
+        <v>-0.2073582838510064</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.3361435087594875</v>
+        <v>-0.3398673702126682</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1653845669031758</v>
+        <v>0.1271483393610662</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.0664898342253557</v>
+        <v>-0.05735852171001877</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.08827206746489027</v>
+        <v>-0.06479671893950495</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.572323744418719</v>
+        <v>1.677367260105076</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.162326328141672</v>
+        <v>1.151018179426828</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.547447897836263</v>
+        <v>1.605993291294737</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.6094600136482765</v>
+        <v>0.6165854997974738</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.2805668891924937</v>
+        <v>0.2812814996562598</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1121949251263028</v>
+        <v>0.08290891617551731</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.7465255296441117</v>
+        <v>0.7056728683003354</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.4198484923209072</v>
+        <v>0.4115138212169859</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.345787466706823</v>
+        <v>0.3854890531546082</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>0.5993347873706277</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1.538313952387269</v>
+        <v>1.538313952387267</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>2.102260688599412</v>
@@ -1083,7 +1083,7 @@
         <v>1.321681922436882</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>-0.5364285313331052</v>
+        <v>-0.5364285313331039</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>0.4258671198400815</v>
@@ -1092,7 +1092,7 @@
         <v>1.078503406654096</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>0.6236945080997363</v>
+        <v>0.6236945080997356</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-3.641985273217669</v>
+        <v>-3.75293863661765</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.083984063251887</v>
+        <v>-2.041434120866086</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.9490162771168699</v>
+        <v>-0.9132012903032619</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-1.379867136479345</v>
+        <v>-1.773620426475096</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-2.112838574500831</v>
+        <v>-1.97772629787159</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-3.499852697571736</v>
+        <v>-3.872115590084187</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-1.6700444914398</v>
+        <v>-1.800600083102308</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-1.131315761735321</v>
+        <v>-1.086115416601499</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-1.226647444354712</v>
+        <v>-1.389917059266125</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.073710371976806</v>
+        <v>1.21929541274505</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.208594255196371</v>
+        <v>3.272999995619632</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4.316148943738795</v>
+        <v>4.321862711896903</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>6.118023912387209</v>
+        <v>5.897190119699212</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>4.5005995643182</v>
+        <v>4.87506404862569</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>2.199222598471559</v>
+        <v>2.056018784487236</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>2.379310017492562</v>
+        <v>2.589467400591846</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>3.103396385346447</v>
+        <v>3.072618051764306</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>2.601725016739403</v>
+        <v>2.479546343226822</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.1443750407394292</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.3705677431478738</v>
+        <v>0.3705677431478732</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.2874716127114973</v>
@@ -1188,7 +1188,7 @@
         <v>0.180732121280208</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>-0.07335340276449046</v>
+        <v>-0.07335340276449026</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.07580291997710938</v>
@@ -1197,7 +1197,7 @@
         <v>0.1919699916263548</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.1110155320406054</v>
+        <v>0.1110155320406053</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.6815490756613428</v>
+        <v>-0.7105351816565988</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.3913360382813381</v>
+        <v>-0.400316171632133</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.2099845672786011</v>
+        <v>-0.1735984635810308</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.1633699305755391</v>
+        <v>-0.2080307035688749</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.2408920978792541</v>
+        <v>-0.2353709120094414</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.3913179051308689</v>
+        <v>-0.3996907780441126</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.2529131706519247</v>
+        <v>-0.276767217213713</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.1785043455153097</v>
+        <v>-0.1675317549761738</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.1924255009960418</v>
+        <v>-0.2163300475376152</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.3889549132244306</v>
+        <v>0.4383968558199881</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.098345001518492</v>
+        <v>1.216268187246476</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.455691519816744</v>
+        <v>1.581696591338974</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.112801726306173</v>
+        <v>1.016069347562267</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.793711383294381</v>
+        <v>0.859324050169427</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.4184928837271839</v>
+        <v>0.3708128801257527</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.5033378517716557</v>
+        <v>0.5622208469949196</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.6751118557394837</v>
+        <v>0.6722320778070424</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.5531468006293159</v>
+        <v>0.5425767936031151</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>0.7057274522629137</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1.668757072334791</v>
+        <v>1.668757072334792</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>2.137639860542527</v>
@@ -1297,7 +1297,7 @@
         <v>0.3600141224483558</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>-0.8084136740421549</v>
+        <v>-0.8084136740421564</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>2.055592803987571</v>
@@ -1306,7 +1306,7 @@
         <v>0.5400202927631131</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>0.4158677841734057</v>
+        <v>0.4158677841734071</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.8623007847891687</v>
+        <v>0.8125237297017829</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.339934617758895</v>
+        <v>-0.3453095691495612</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.6717112820613396</v>
+        <v>0.6444197339865437</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.709421356075521</v>
+        <v>0.8320457056426698</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-0.7893711804488366</v>
+        <v>-1.092634975652839</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-2.096044139627792</v>
+        <v>-2.038601206786357</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>1.104371023379281</v>
+        <v>1.203094023193002</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-0.3054854506887935</v>
+        <v>-0.3649524312327805</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-0.4114926244985691</v>
+        <v>-0.3866312972880946</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.100150244929423</v>
+        <v>2.911261672585867</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.775593623633748</v>
+        <v>1.739649768277961</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2.761831962153763</v>
+        <v>2.740174098359168</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>3.497609205156587</v>
+        <v>3.477450517836928</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.672062291889193</v>
+        <v>1.691012169031254</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.2512563251068787</v>
+        <v>0.3491390258079718</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>2.873959041012106</v>
+        <v>2.958326715703238</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>1.390005568856335</v>
+        <v>1.394268290633433</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>1.220226028396128</v>
+        <v>1.244515663998703</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.1706967376685721</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.4036280398268918</v>
+        <v>0.4036280398268919</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.2897042115503571</v>
@@ -1402,7 +1402,7 @@
         <v>0.04879100984972473</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>-0.1095604785295641</v>
+        <v>-0.1095604785295643</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.3555282707990479</v>
@@ -1411,7 +1411,7 @@
         <v>0.09340005496712472</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.0719270635222055</v>
+        <v>0.07192706352220575</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.1895353977725802</v>
+        <v>0.1697056914866629</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.07435824239812243</v>
+        <v>-0.08057851606325027</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.143519097790835</v>
+        <v>0.1355380644367181</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.1033215279713798</v>
+        <v>0.1112713853706765</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.09887863228408174</v>
+        <v>-0.1340009314047766</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.2580576164928035</v>
+        <v>-0.2507571472353418</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1741036480179053</v>
+        <v>0.1954816239541355</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.04924193741078876</v>
+        <v>-0.05824754431726816</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.06669551328438894</v>
+        <v>-0.06189346299592496</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.8282326773559994</v>
+        <v>0.7888423717203166</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.4861319548091954</v>
+        <v>0.4759053097802816</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.761817482559794</v>
+        <v>0.7333492736246185</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.5197872857568675</v>
+        <v>0.5125582295229441</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.2449416503985949</v>
+        <v>0.2410435032959078</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.03841884587480748</v>
+        <v>0.05649668597032313</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.5397240933249778</v>
+        <v>0.5497042096496643</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.2604114378348766</v>
+        <v>0.2545580717430728</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.2237034516541234</v>
+        <v>0.2311639501639153</v>
       </c>
     </row>
     <row r="28">
